--- a/excelSheet/nhóm L1.xlsx
+++ b/excelSheet/nhóm L1.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4911,626 +4911,6 @@
       <c r="R76" s="7" t="n">
         <v/>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
-      <c r="C77" s="2" t="n"/>
-      <c r="D77" s="2" t="n"/>
-      <c r="E77" s="2" t="n"/>
-      <c r="F77" s="2" t="n"/>
-      <c r="G77" s="2" t="n"/>
-      <c r="H77" s="2" t="n"/>
-      <c r="I77" s="2" t="n"/>
-      <c r="J77" s="2" t="n"/>
-      <c r="K77" s="2" t="n"/>
-      <c r="L77" s="2" t="n"/>
-      <c r="M77" s="2" t="n"/>
-      <c r="N77" s="2" t="n"/>
-      <c r="O77" s="2" t="n"/>
-      <c r="P77" s="2" t="inlineStr"/>
-      <c r="Q77" s="2" t="n"/>
-      <c r="R77" s="2" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
-      <c r="C78" s="2" t="n"/>
-      <c r="D78" s="2" t="n"/>
-      <c r="E78" s="2" t="n"/>
-      <c r="F78" s="2" t="n"/>
-      <c r="G78" s="2" t="n"/>
-      <c r="H78" s="2" t="n"/>
-      <c r="I78" s="2" t="n"/>
-      <c r="J78" s="2" t="n"/>
-      <c r="K78" s="2" t="n"/>
-      <c r="L78" s="2" t="n"/>
-      <c r="M78" s="2" t="n"/>
-      <c r="N78" s="2" t="n"/>
-      <c r="O78" s="2" t="n"/>
-      <c r="P78" s="2" t="inlineStr"/>
-      <c r="Q78" s="2" t="n"/>
-      <c r="R78" s="2" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
-      <c r="C79" s="2" t="n"/>
-      <c r="D79" s="2" t="n"/>
-      <c r="E79" s="2" t="n"/>
-      <c r="F79" s="2" t="n"/>
-      <c r="G79" s="2" t="n"/>
-      <c r="H79" s="2" t="n"/>
-      <c r="I79" s="2" t="n"/>
-      <c r="J79" s="2" t="n"/>
-      <c r="K79" s="2" t="n"/>
-      <c r="L79" s="2" t="n"/>
-      <c r="M79" s="2" t="n"/>
-      <c r="N79" s="2" t="n"/>
-      <c r="O79" s="2" t="n"/>
-      <c r="P79" s="2" t="inlineStr"/>
-      <c r="Q79" s="2" t="n"/>
-      <c r="R79" s="2" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
-      <c r="C80" s="2" t="n"/>
-      <c r="D80" s="2" t="n"/>
-      <c r="E80" s="2" t="n"/>
-      <c r="F80" s="2" t="n"/>
-      <c r="G80" s="2" t="n"/>
-      <c r="H80" s="2" t="n"/>
-      <c r="I80" s="2" t="n"/>
-      <c r="J80" s="2" t="n"/>
-      <c r="K80" s="2" t="n"/>
-      <c r="L80" s="2" t="n"/>
-      <c r="M80" s="2" t="n"/>
-      <c r="N80" s="2" t="n"/>
-      <c r="O80" s="2" t="n"/>
-      <c r="P80" s="2" t="inlineStr"/>
-      <c r="Q80" s="2" t="n"/>
-      <c r="R80" s="2" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
-      <c r="C81" s="2" t="n"/>
-      <c r="D81" s="2" t="n"/>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="2" t="n"/>
-      <c r="H81" s="2" t="n"/>
-      <c r="I81" s="2" t="n"/>
-      <c r="J81" s="2" t="n"/>
-      <c r="K81" s="2" t="n"/>
-      <c r="L81" s="2" t="n"/>
-      <c r="M81" s="2" t="n"/>
-      <c r="N81" s="2" t="n"/>
-      <c r="O81" s="2" t="n"/>
-      <c r="P81" s="2" t="inlineStr"/>
-      <c r="Q81" s="2" t="n"/>
-      <c r="R81" s="2" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
-      <c r="C82" s="2" t="n"/>
-      <c r="D82" s="2" t="n"/>
-      <c r="E82" s="2" t="n"/>
-      <c r="F82" s="2" t="n"/>
-      <c r="G82" s="2" t="n"/>
-      <c r="H82" s="2" t="n"/>
-      <c r="I82" s="2" t="n"/>
-      <c r="J82" s="2" t="n"/>
-      <c r="K82" s="2" t="n"/>
-      <c r="L82" s="2" t="n"/>
-      <c r="M82" s="2" t="n"/>
-      <c r="N82" s="2" t="n"/>
-      <c r="O82" s="2" t="n"/>
-      <c r="P82" s="2" t="inlineStr"/>
-      <c r="Q82" s="2" t="n"/>
-      <c r="R82" s="2" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
-      <c r="C83" s="2" t="n"/>
-      <c r="D83" s="2" t="n"/>
-      <c r="E83" s="2" t="n"/>
-      <c r="F83" s="2" t="n"/>
-      <c r="G83" s="2" t="n"/>
-      <c r="H83" s="2" t="n"/>
-      <c r="I83" s="2" t="n"/>
-      <c r="J83" s="2" t="n"/>
-      <c r="K83" s="2" t="n"/>
-      <c r="L83" s="2" t="n"/>
-      <c r="M83" s="2" t="n"/>
-      <c r="N83" s="2" t="n"/>
-      <c r="O83" s="2" t="n"/>
-      <c r="P83" s="2" t="inlineStr"/>
-      <c r="Q83" s="2" t="n"/>
-      <c r="R83" s="2" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n"/>
-      <c r="B84" s="2" t="n"/>
-      <c r="C84" s="2" t="n"/>
-      <c r="D84" s="2" t="n"/>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="2" t="n"/>
-      <c r="H84" s="2" t="n"/>
-      <c r="I84" s="2" t="n"/>
-      <c r="J84" s="2" t="n"/>
-      <c r="K84" s="2" t="n"/>
-      <c r="L84" s="2" t="n"/>
-      <c r="M84" s="2" t="n"/>
-      <c r="N84" s="2" t="n"/>
-      <c r="O84" s="2" t="n"/>
-      <c r="P84" s="2" t="inlineStr"/>
-      <c r="Q84" s="2" t="n"/>
-      <c r="R84" s="2" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
-      <c r="C85" s="2" t="n"/>
-      <c r="D85" s="2" t="n"/>
-      <c r="E85" s="2" t="n"/>
-      <c r="F85" s="2" t="n"/>
-      <c r="G85" s="2" t="n"/>
-      <c r="H85" s="2" t="n"/>
-      <c r="I85" s="2" t="n"/>
-      <c r="J85" s="2" t="n"/>
-      <c r="K85" s="2" t="n"/>
-      <c r="L85" s="2" t="n"/>
-      <c r="M85" s="2" t="n"/>
-      <c r="N85" s="2" t="n"/>
-      <c r="O85" s="2" t="n"/>
-      <c r="P85" s="2" t="inlineStr"/>
-      <c r="Q85" s="2" t="n"/>
-      <c r="R85" s="2" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n"/>
-      <c r="B86" s="2" t="n"/>
-      <c r="C86" s="2" t="n"/>
-      <c r="D86" s="2" t="n"/>
-      <c r="E86" s="2" t="n"/>
-      <c r="F86" s="2" t="n"/>
-      <c r="G86" s="2" t="n"/>
-      <c r="H86" s="2" t="n"/>
-      <c r="I86" s="2" t="n"/>
-      <c r="J86" s="2" t="n"/>
-      <c r="K86" s="2" t="n"/>
-      <c r="L86" s="2" t="n"/>
-      <c r="M86" s="2" t="n"/>
-      <c r="N86" s="2" t="n"/>
-      <c r="O86" s="2" t="n"/>
-      <c r="P86" s="2" t="inlineStr"/>
-      <c r="Q86" s="2" t="n"/>
-      <c r="R86" s="2" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
-      <c r="C87" s="2" t="n"/>
-      <c r="D87" s="2" t="n"/>
-      <c r="E87" s="2" t="n"/>
-      <c r="F87" s="2" t="n"/>
-      <c r="G87" s="2" t="n"/>
-      <c r="H87" s="2" t="n"/>
-      <c r="I87" s="2" t="n"/>
-      <c r="J87" s="2" t="n"/>
-      <c r="K87" s="2" t="n"/>
-      <c r="L87" s="2" t="n"/>
-      <c r="M87" s="2" t="n"/>
-      <c r="N87" s="2" t="n"/>
-      <c r="O87" s="2" t="n"/>
-      <c r="P87" s="2" t="inlineStr"/>
-      <c r="Q87" s="2" t="n"/>
-      <c r="R87" s="2" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
-      <c r="C88" s="2" t="n"/>
-      <c r="D88" s="2" t="n"/>
-      <c r="E88" s="2" t="n"/>
-      <c r="F88" s="2" t="n"/>
-      <c r="G88" s="2" t="n"/>
-      <c r="H88" s="2" t="n"/>
-      <c r="I88" s="2" t="n"/>
-      <c r="J88" s="2" t="n"/>
-      <c r="K88" s="2" t="n"/>
-      <c r="L88" s="2" t="n"/>
-      <c r="M88" s="2" t="n"/>
-      <c r="N88" s="2" t="n"/>
-      <c r="O88" s="2" t="n"/>
-      <c r="P88" s="2" t="inlineStr"/>
-      <c r="Q88" s="2" t="n"/>
-      <c r="R88" s="2" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
-      <c r="C89" s="2" t="n"/>
-      <c r="D89" s="2" t="n"/>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-      <c r="G89" s="2" t="n"/>
-      <c r="H89" s="2" t="n"/>
-      <c r="I89" s="2" t="n"/>
-      <c r="J89" s="2" t="n"/>
-      <c r="K89" s="2" t="n"/>
-      <c r="L89" s="2" t="n"/>
-      <c r="M89" s="2" t="n"/>
-      <c r="N89" s="2" t="n"/>
-      <c r="O89" s="2" t="n"/>
-      <c r="P89" s="2" t="inlineStr"/>
-      <c r="Q89" s="2" t="n"/>
-      <c r="R89" s="2" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
-      <c r="C90" s="2" t="n"/>
-      <c r="D90" s="2" t="n"/>
-      <c r="E90" s="2" t="n"/>
-      <c r="F90" s="2" t="n"/>
-      <c r="G90" s="2" t="n"/>
-      <c r="H90" s="2" t="n"/>
-      <c r="I90" s="2" t="n"/>
-      <c r="J90" s="2" t="n"/>
-      <c r="K90" s="2" t="n"/>
-      <c r="L90" s="2" t="n"/>
-      <c r="M90" s="2" t="n"/>
-      <c r="N90" s="2" t="n"/>
-      <c r="O90" s="2" t="n"/>
-      <c r="P90" s="2" t="inlineStr"/>
-      <c r="Q90" s="2" t="n"/>
-      <c r="R90" s="2" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
-      <c r="C91" s="2" t="n"/>
-      <c r="D91" s="2" t="n"/>
-      <c r="E91" s="2" t="n"/>
-      <c r="F91" s="2" t="n"/>
-      <c r="G91" s="2" t="n"/>
-      <c r="H91" s="2" t="n"/>
-      <c r="I91" s="2" t="n"/>
-      <c r="J91" s="2" t="n"/>
-      <c r="K91" s="2" t="n"/>
-      <c r="L91" s="2" t="n"/>
-      <c r="M91" s="2" t="n"/>
-      <c r="N91" s="2" t="n"/>
-      <c r="O91" s="2" t="n"/>
-      <c r="P91" s="2" t="inlineStr"/>
-      <c r="Q91" s="2" t="n"/>
-      <c r="R91" s="2" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
-      <c r="C92" s="2" t="n"/>
-      <c r="D92" s="2" t="n"/>
-      <c r="E92" s="2" t="n"/>
-      <c r="F92" s="2" t="n"/>
-      <c r="G92" s="2" t="n"/>
-      <c r="H92" s="2" t="n"/>
-      <c r="I92" s="2" t="n"/>
-      <c r="J92" s="2" t="n"/>
-      <c r="K92" s="2" t="n"/>
-      <c r="L92" s="2" t="n"/>
-      <c r="M92" s="2" t="n"/>
-      <c r="N92" s="2" t="n"/>
-      <c r="O92" s="2" t="n"/>
-      <c r="P92" s="2" t="inlineStr"/>
-      <c r="Q92" s="2" t="n"/>
-      <c r="R92" s="2" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n"/>
-      <c r="B93" s="2" t="n"/>
-      <c r="C93" s="2" t="n"/>
-      <c r="D93" s="2" t="n"/>
-      <c r="E93" s="2" t="n"/>
-      <c r="F93" s="2" t="n"/>
-      <c r="G93" s="2" t="n"/>
-      <c r="H93" s="2" t="n"/>
-      <c r="I93" s="2" t="n"/>
-      <c r="J93" s="2" t="n"/>
-      <c r="K93" s="2" t="n"/>
-      <c r="L93" s="2" t="n"/>
-      <c r="M93" s="2" t="n"/>
-      <c r="N93" s="2" t="n"/>
-      <c r="O93" s="2" t="n"/>
-      <c r="P93" s="2" t="inlineStr"/>
-      <c r="Q93" s="2" t="n"/>
-      <c r="R93" s="2" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n"/>
-      <c r="B94" s="2" t="n"/>
-      <c r="C94" s="2" t="n"/>
-      <c r="D94" s="2" t="n"/>
-      <c r="E94" s="2" t="n"/>
-      <c r="F94" s="2" t="n"/>
-      <c r="G94" s="2" t="n"/>
-      <c r="H94" s="2" t="n"/>
-      <c r="I94" s="2" t="n"/>
-      <c r="J94" s="2" t="n"/>
-      <c r="K94" s="2" t="n"/>
-      <c r="L94" s="2" t="n"/>
-      <c r="M94" s="2" t="n"/>
-      <c r="N94" s="2" t="n"/>
-      <c r="O94" s="2" t="n"/>
-      <c r="P94" s="2" t="inlineStr"/>
-      <c r="Q94" s="2" t="n"/>
-      <c r="R94" s="2" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n"/>
-      <c r="B95" s="2" t="n"/>
-      <c r="C95" s="2" t="n"/>
-      <c r="D95" s="2" t="n"/>
-      <c r="E95" s="2" t="n"/>
-      <c r="F95" s="2" t="n"/>
-      <c r="G95" s="2" t="n"/>
-      <c r="H95" s="2" t="n"/>
-      <c r="I95" s="2" t="n"/>
-      <c r="J95" s="2" t="n"/>
-      <c r="K95" s="2" t="n"/>
-      <c r="L95" s="2" t="n"/>
-      <c r="M95" s="2" t="n"/>
-      <c r="N95" s="2" t="n"/>
-      <c r="O95" s="2" t="n"/>
-      <c r="P95" s="2" t="inlineStr"/>
-      <c r="Q95" s="2" t="n"/>
-      <c r="R95" s="2" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
-      <c r="C96" s="2" t="n"/>
-      <c r="D96" s="2" t="n"/>
-      <c r="E96" s="2" t="n"/>
-      <c r="F96" s="2" t="n"/>
-      <c r="G96" s="2" t="n"/>
-      <c r="H96" s="2" t="n"/>
-      <c r="I96" s="2" t="n"/>
-      <c r="J96" s="2" t="n"/>
-      <c r="K96" s="2" t="n"/>
-      <c r="L96" s="2" t="n"/>
-      <c r="M96" s="2" t="n"/>
-      <c r="N96" s="2" t="n"/>
-      <c r="O96" s="2" t="n"/>
-      <c r="P96" s="2" t="inlineStr"/>
-      <c r="Q96" s="2" t="n"/>
-      <c r="R96" s="2" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
-      <c r="C97" s="2" t="n"/>
-      <c r="D97" s="2" t="n"/>
-      <c r="E97" s="2" t="n"/>
-      <c r="F97" s="2" t="n"/>
-      <c r="G97" s="2" t="n"/>
-      <c r="H97" s="2" t="n"/>
-      <c r="I97" s="2" t="n"/>
-      <c r="J97" s="2" t="n"/>
-      <c r="K97" s="2" t="n"/>
-      <c r="L97" s="2" t="n"/>
-      <c r="M97" s="2" t="n"/>
-      <c r="N97" s="2" t="n"/>
-      <c r="O97" s="2" t="n"/>
-      <c r="P97" s="2" t="inlineStr"/>
-      <c r="Q97" s="2" t="n"/>
-      <c r="R97" s="2" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n"/>
-      <c r="B98" s="2" t="n"/>
-      <c r="C98" s="2" t="n"/>
-      <c r="D98" s="2" t="n"/>
-      <c r="E98" s="2" t="n"/>
-      <c r="F98" s="2" t="n"/>
-      <c r="G98" s="2" t="n"/>
-      <c r="H98" s="2" t="n"/>
-      <c r="I98" s="2" t="n"/>
-      <c r="J98" s="2" t="n"/>
-      <c r="K98" s="2" t="n"/>
-      <c r="L98" s="2" t="n"/>
-      <c r="M98" s="2" t="n"/>
-      <c r="N98" s="2" t="n"/>
-      <c r="O98" s="2" t="n"/>
-      <c r="P98" s="2" t="inlineStr"/>
-      <c r="Q98" s="2" t="n"/>
-      <c r="R98" s="2" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n"/>
-      <c r="B99" s="2" t="n"/>
-      <c r="C99" s="2" t="n"/>
-      <c r="D99" s="2" t="n"/>
-      <c r="E99" s="2" t="n"/>
-      <c r="F99" s="2" t="n"/>
-      <c r="G99" s="2" t="n"/>
-      <c r="H99" s="2" t="n"/>
-      <c r="I99" s="2" t="n"/>
-      <c r="J99" s="2" t="n"/>
-      <c r="K99" s="2" t="n"/>
-      <c r="L99" s="2" t="n"/>
-      <c r="M99" s="2" t="n"/>
-      <c r="N99" s="2" t="n"/>
-      <c r="O99" s="2" t="n"/>
-      <c r="P99" s="2" t="inlineStr"/>
-      <c r="Q99" s="2" t="n"/>
-      <c r="R99" s="2" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n"/>
-      <c r="B100" s="2" t="n"/>
-      <c r="C100" s="2" t="n"/>
-      <c r="D100" s="2" t="n"/>
-      <c r="E100" s="2" t="n"/>
-      <c r="F100" s="2" t="n"/>
-      <c r="G100" s="2" t="n"/>
-      <c r="H100" s="2" t="n"/>
-      <c r="I100" s="2" t="n"/>
-      <c r="J100" s="2" t="n"/>
-      <c r="K100" s="2" t="n"/>
-      <c r="L100" s="2" t="n"/>
-      <c r="M100" s="2" t="n"/>
-      <c r="N100" s="2" t="n"/>
-      <c r="O100" s="2" t="n"/>
-      <c r="P100" s="2" t="inlineStr"/>
-      <c r="Q100" s="2" t="n"/>
-      <c r="R100" s="2" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n"/>
-      <c r="B101" s="2" t="n"/>
-      <c r="C101" s="2" t="n"/>
-      <c r="D101" s="2" t="n"/>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-      <c r="G101" s="2" t="n"/>
-      <c r="H101" s="2" t="n"/>
-      <c r="I101" s="2" t="n"/>
-      <c r="J101" s="2" t="n"/>
-      <c r="K101" s="2" t="n"/>
-      <c r="L101" s="2" t="n"/>
-      <c r="M101" s="2" t="n"/>
-      <c r="N101" s="2" t="n"/>
-      <c r="O101" s="2" t="n"/>
-      <c r="P101" s="2" t="inlineStr"/>
-      <c r="Q101" s="2" t="n"/>
-      <c r="R101" s="2" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n"/>
-      <c r="B102" s="2" t="n"/>
-      <c r="C102" s="2" t="n"/>
-      <c r="D102" s="2" t="n"/>
-      <c r="E102" s="2" t="n"/>
-      <c r="F102" s="2" t="n"/>
-      <c r="G102" s="2" t="n"/>
-      <c r="H102" s="2" t="n"/>
-      <c r="I102" s="2" t="n"/>
-      <c r="J102" s="2" t="n"/>
-      <c r="K102" s="2" t="n"/>
-      <c r="L102" s="2" t="n"/>
-      <c r="M102" s="2" t="n"/>
-      <c r="N102" s="2" t="n"/>
-      <c r="O102" s="2" t="n"/>
-      <c r="P102" s="2" t="inlineStr"/>
-      <c r="Q102" s="2" t="n"/>
-      <c r="R102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
-      <c r="C103" s="2" t="n"/>
-      <c r="D103" s="2" t="n"/>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-      <c r="H103" s="2" t="n"/>
-      <c r="I103" s="2" t="n"/>
-      <c r="J103" s="2" t="n"/>
-      <c r="K103" s="2" t="n"/>
-      <c r="L103" s="2" t="n"/>
-      <c r="M103" s="2" t="n"/>
-      <c r="N103" s="2" t="n"/>
-      <c r="O103" s="2" t="n"/>
-      <c r="P103" s="2" t="inlineStr"/>
-      <c r="Q103" s="2" t="n"/>
-      <c r="R103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
-      <c r="C104" s="2" t="n"/>
-      <c r="D104" s="2" t="n"/>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-      <c r="H104" s="2" t="n"/>
-      <c r="I104" s="2" t="n"/>
-      <c r="J104" s="2" t="n"/>
-      <c r="K104" s="2" t="n"/>
-      <c r="L104" s="2" t="n"/>
-      <c r="M104" s="2" t="n"/>
-      <c r="N104" s="2" t="n"/>
-      <c r="O104" s="2" t="n"/>
-      <c r="P104" s="2" t="inlineStr"/>
-      <c r="Q104" s="2" t="n"/>
-      <c r="R104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n"/>
-      <c r="B105" s="2" t="n"/>
-      <c r="C105" s="2" t="n"/>
-      <c r="D105" s="2" t="n"/>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-      <c r="H105" s="2" t="n"/>
-      <c r="I105" s="2" t="n"/>
-      <c r="J105" s="2" t="n"/>
-      <c r="K105" s="2" t="n"/>
-      <c r="L105" s="2" t="n"/>
-      <c r="M105" s="2" t="n"/>
-      <c r="N105" s="2" t="n"/>
-      <c r="O105" s="2" t="n"/>
-      <c r="P105" s="2" t="inlineStr"/>
-      <c r="Q105" s="2" t="n"/>
-      <c r="R105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n"/>
-      <c r="B106" s="2" t="n"/>
-      <c r="C106" s="2" t="n"/>
-      <c r="D106" s="2" t="n"/>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-      <c r="H106" s="2" t="n"/>
-      <c r="I106" s="2" t="n"/>
-      <c r="J106" s="2" t="n"/>
-      <c r="K106" s="2" t="n"/>
-      <c r="L106" s="2" t="n"/>
-      <c r="M106" s="2" t="n"/>
-      <c r="N106" s="2" t="n"/>
-      <c r="O106" s="2" t="n"/>
-      <c r="P106" s="2" t="inlineStr"/>
-      <c r="Q106" s="2" t="n"/>
-      <c r="R106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
-      <c r="C107" s="2" t="n"/>
-      <c r="D107" s="2" t="n"/>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-      <c r="H107" s="2" t="n"/>
-      <c r="I107" s="2" t="n"/>
-      <c r="J107" s="2" t="n"/>
-      <c r="K107" s="2" t="n"/>
-      <c r="L107" s="2" t="n"/>
-      <c r="M107" s="2" t="n"/>
-      <c r="N107" s="2" t="n"/>
-      <c r="O107" s="2" t="n"/>
-      <c r="P107" s="2" t="inlineStr"/>
-      <c r="Q107" s="2" t="n"/>
-      <c r="R107" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5554,39 +4934,6 @@
     <mergeCell ref="A47"/>
     <mergeCell ref="A23"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="P77"/>
-    <hyperlink ref="P78"/>
-    <hyperlink ref="P79"/>
-    <hyperlink ref="P80"/>
-    <hyperlink ref="P81"/>
-    <hyperlink ref="P82"/>
-    <hyperlink ref="P83"/>
-    <hyperlink ref="P84"/>
-    <hyperlink ref="P85"/>
-    <hyperlink ref="P86"/>
-    <hyperlink ref="P87"/>
-    <hyperlink ref="P88"/>
-    <hyperlink ref="P89"/>
-    <hyperlink ref="P90"/>
-    <hyperlink ref="P91"/>
-    <hyperlink ref="P92"/>
-    <hyperlink ref="P93"/>
-    <hyperlink ref="P94"/>
-    <hyperlink ref="P95"/>
-    <hyperlink ref="P96"/>
-    <hyperlink ref="P97"/>
-    <hyperlink ref="P98"/>
-    <hyperlink ref="P99"/>
-    <hyperlink ref="P100"/>
-    <hyperlink ref="P101"/>
-    <hyperlink ref="P102"/>
-    <hyperlink ref="P103"/>
-    <hyperlink ref="P104"/>
-    <hyperlink ref="P105"/>
-    <hyperlink ref="P106"/>
-    <hyperlink ref="P107"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelSheet/nhóm L1.xlsx
+++ b/excelSheet/nhóm L1.xlsx
@@ -47,7 +47,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -62,20 +62,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="00CCE0FF"/>
+        <bgColor rgb="00CCE0FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00365072"/>
-        <bgColor rgb="00365072"/>
+        <fgColor rgb="006699CC"/>
+        <bgColor rgb="006699CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A4C639"/>
-        <bgColor rgb="00A4C639"/>
+        <fgColor rgb="009FC9E7"/>
+        <bgColor rgb="009FC9E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0E57C"/>
+        <bgColor rgb="00B0E57C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008000"/>
+        <bgColor rgb="00008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -105,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -116,13 +128,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -584,42 +599,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -629,17 +644,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -649,12 +664,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -664,263 +679,263 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP trước 23.08.2023</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J4" s="7" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>80</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P4" s="7" t="inlineStr">
-        <is>
-          <t>- Thời gian check - fix bugs: 23h/tháng</t>
-        </is>
-      </c>
-      <c r="Q4" s="7" t="n"/>
-      <c r="R4" s="7" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án SOP trước 23.08.2023</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J4" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K4" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N5" s="7" t="n">
+      <c r="L4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N4" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="O5" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P5" s="7" t="inlineStr">
+      <c r="O4" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P4" s="8" t="inlineStr">
         <is>
           <t>- Nghiên cứu HVAC: 8h 
 - Tích hợp thư viện vào source code và triển khai dev: 4h
 - Kiểm tra, điều chỉnh cấu hình cho các service: 1h</t>
         </is>
       </c>
-      <c r="Q5" s="7" t="n"/>
-      <c r="R5" s="7" t="inlineStr">
+      <c r="Q4" s="8" t="n"/>
+      <c r="R4" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P5" s="8" t="inlineStr">
+        <is>
+          <t>- Thời gian check - fix bugs: 23h/tháng</t>
+        </is>
+      </c>
+      <c r="Q5" s="8" t="n"/>
+      <c r="R5" s="8" t="inlineStr">
+        <is>
+          <t>Trống</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K6" s="8" t="n">
+      <c r="A6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K6" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O6" s="8" t="inlineStr"/>
-      <c r="P6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R6" s="7" t="n">
+      <c r="O6" s="9" t="inlineStr"/>
+      <c r="P6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R6" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án SOP</t>
         </is>
       </c>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="H7" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N7" s="7" t="n">
+      <c r="L7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N7" s="8" t="n">
         <v>148</v>
       </c>
-      <c r="O7" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P7" s="7" t="inlineStr">
+      <c r="O7" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P7" s="8" t="inlineStr">
         <is>
           <t>- Daily SOP: 0.5h/ngày * 23 = 11.5h/tháng
 - Sprint planing - retro review: 8h/tháng
@@ -928,64 +943,64 @@
 - Code tính năng: 5.5h/ngày * 23 = 126.5h/tháng</t>
         </is>
       </c>
-      <c r="Q7" s="7" t="n"/>
-      <c r="R7" s="7" t="inlineStr">
+      <c r="Q7" s="8" t="n"/>
+      <c r="R7" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K8" s="8" t="n">
+      <c r="A8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K8" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O8" s="8" t="inlineStr"/>
-      <c r="P8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R8" s="7" t="n">
+      <c r="O8" s="9" t="inlineStr"/>
+      <c r="P8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R8" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -1053,42 +1068,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -1098,17 +1113,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L11" s="5" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -1118,12 +1133,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -1133,77 +1148,77 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="R11" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr">
         <is>
           <t>Nghiên cứu model AI Falcon-40b và demo trước 23.08.2023; Tham dự thi sáng tạo FTEL</t>
         </is>
       </c>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="inlineStr">
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H12" s="7" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr">
+      <c r="I12" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J12" s="7" t="inlineStr">
+      <c r="J12" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L12" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N12" s="7" t="n">
+      <c r="L12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N12" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="O12" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P12" s="7" t="inlineStr">
+      <c r="O12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="8" t="inlineStr">
         <is>
           <t>- Nghiên cứu, suport vẽ lowcode cho tool</t>
         </is>
       </c>
-      <c r="Q12" s="7" t="n"/>
-      <c r="R12" s="7" t="inlineStr">
+      <c r="Q12" s="8" t="n"/>
+      <c r="R12" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1211,183 +1226,183 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="H13" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="J13" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="K13" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N13" s="7" t="n">
+      <c r="L13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N13" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="O13" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P13" s="7" t="inlineStr">
+      <c r="O13" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="8" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs: 20h/tháng</t>
         </is>
       </c>
-      <c r="Q13" s="7" t="n"/>
-      <c r="R13" s="7" t="inlineStr">
+      <c r="Q13" s="8" t="n"/>
+      <c r="R13" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K14" s="8" t="n">
+      <c r="A14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K14" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O14" s="8" t="inlineStr"/>
-      <c r="P14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q14" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R14" s="7" t="n">
+      <c r="O14" s="9" t="inlineStr"/>
+      <c r="P14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q14" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R14" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản apps v1.1, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
+      <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="H15" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I15" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="J15" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N15" s="7" t="n">
+      <c r="L15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N15" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="O15" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P15" s="7" t="inlineStr">
+      <c r="O15" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P15" s="8" t="inlineStr">
         <is>
           <t>- Daily SOP: 0.5h/ngày * 23 = 1.5h/tháng
 - Sprint planing - retro review: 8h/tháng
@@ -1395,64 +1410,64 @@
 - Code tính năng: 4-5h/ngày * 23 = 90h/tháng</t>
         </is>
       </c>
-      <c r="Q15" s="7" t="n"/>
-      <c r="R15" s="7" t="inlineStr">
+      <c r="Q15" s="8" t="n"/>
+      <c r="R15" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K16" s="8" t="n">
+      <c r="A16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K16" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="8" t="inlineStr"/>
-      <c r="P16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R16" s="7" t="n">
+      <c r="O16" s="9" t="inlineStr"/>
+      <c r="P16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q16" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R16" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -1520,42 +1535,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="I19" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -1565,17 +1580,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K19" s="5" t="inlineStr">
+      <c r="K19" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L19" s="5" t="inlineStr">
+      <c r="L19" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="M19" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -1585,12 +1600,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O19" s="5" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="P19" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -1600,77 +1615,77 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
+      <c r="D20" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
         </is>
       </c>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="inlineStr">
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H20" s="7" t="inlineStr">
+      <c r="H20" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I20" s="7" t="inlineStr">
+      <c r="I20" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J20" s="7" t="inlineStr">
+      <c r="J20" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L20" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N20" s="7" t="n">
+      <c r="L20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N20" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="O20" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P20" s="7" t="inlineStr">
+      <c r="O20" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P20" s="8" t="inlineStr">
         <is>
           <t>- Nghiên cứu, code tính năng</t>
         </is>
       </c>
-      <c r="Q20" s="7" t="n"/>
-      <c r="R20" s="7" t="inlineStr">
+      <c r="Q20" s="8" t="n"/>
+      <c r="R20" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -1678,183 +1693,183 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án SOP</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="inlineStr">
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H21" s="7" t="inlineStr">
+      <c r="H21" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="I21" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L21" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M21" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N21" s="7" t="n">
+      <c r="L21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N21" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="O21" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P21" s="7" t="inlineStr">
+      <c r="O21" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P21" s="8" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs: 20h/tháng</t>
         </is>
       </c>
-      <c r="Q21" s="7" t="n"/>
-      <c r="R21" s="7" t="inlineStr">
+      <c r="Q21" s="8" t="n"/>
+      <c r="R21" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K22" s="8" t="n">
+      <c r="A22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K22" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L22" s="8" t="n">
+      <c r="L22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="8" t="n">
+      <c r="M22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="8" t="n">
+      <c r="N22" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O22" s="8" t="inlineStr"/>
-      <c r="P22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q22" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R22" s="7" t="n">
+      <c r="O22" s="9" t="inlineStr"/>
+      <c r="P22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q22" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R22" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web v1.2, release các tính năng theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D23" s="7" t="inlineStr">
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án SOP)</t>
         </is>
       </c>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="inlineStr">
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="8" t="n"/>
+      <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H23" s="7" t="inlineStr">
+      <c r="H23" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I23" s="7" t="inlineStr">
+      <c r="I23" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J23" s="7" t="inlineStr">
+      <c r="J23" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K23" s="7" t="n">
+      <c r="K23" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L23" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M23" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N23" s="7" t="n">
+      <c r="L23" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N23" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="O23" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P23" s="7" t="inlineStr">
+      <c r="O23" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P23" s="8" t="inlineStr">
         <is>
           <t>- Daily SOP: 0.5h/ngày * 21 = 10.5h/tháng
 - Sprint planing - retro review: 8h/tháng
@@ -1862,64 +1877,64 @@
 - Code tính năng: 4-5h/ngày * 21 = 80h/tháng</t>
         </is>
       </c>
-      <c r="Q23" s="7" t="n"/>
-      <c r="R23" s="7" t="inlineStr">
+      <c r="Q23" s="8" t="n"/>
+      <c r="R23" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K24" s="8" t="n">
+      <c r="A24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K24" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L24" s="8" t="n">
+      <c r="L24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M24" s="8" t="n">
+      <c r="M24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N24" s="8" t="n">
+      <c r="N24" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O24" s="8" t="inlineStr"/>
-      <c r="P24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q24" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R24" s="7" t="n">
+      <c r="O24" s="9" t="inlineStr"/>
+      <c r="P24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q24" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R24" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -1987,42 +2002,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H27" s="4" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I27" s="4" t="inlineStr">
+      <c r="I27" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -2032,17 +2047,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K27" s="5" t="inlineStr">
+      <c r="K27" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L27" s="5" t="inlineStr">
+      <c r="L27" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M27" s="5" t="inlineStr">
+      <c r="M27" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -2052,12 +2067,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P27" s="4" t="inlineStr">
+      <c r="P27" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -2067,69 +2082,69 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="inlineStr">
+      <c r="A28" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="inlineStr">
+      <c r="B28" s="8" t="n"/>
+      <c r="C28" s="8" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="inlineStr">
+      <c r="D28" s="8" t="n"/>
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H28" s="7" t="inlineStr">
+      <c r="H28" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I28" s="7" t="inlineStr">
+      <c r="I28" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J28" s="7" t="inlineStr">
+      <c r="J28" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K28" s="7" t="n">
+      <c r="K28" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L28" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M28" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N28" s="7" t="n">
+      <c r="L28" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M28" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N28" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="O28" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P28" s="7" t="inlineStr">
+      <c r="O28" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P28" s="8" t="inlineStr">
         <is>
           <t>2h trong 1 tuần</t>
         </is>
       </c>
-      <c r="Q28" s="7" t="n"/>
-      <c r="R28" s="7" t="inlineStr">
+      <c r="Q28" s="8" t="n"/>
+      <c r="R28" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2137,175 +2152,175 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="inlineStr">
+      <c r="B29" s="8" t="n"/>
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="7" t="inlineStr">
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
+      <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H29" s="7" t="inlineStr">
+      <c r="H29" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I29" s="7" t="inlineStr">
+      <c r="I29" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J29" s="7" t="inlineStr">
+      <c r="J29" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K29" s="7" t="n">
+      <c r="K29" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L29" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M29" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N29" s="7" t="n">
+      <c r="L29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N29" s="8" t="n">
         <v>545</v>
       </c>
-      <c r="O29" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P29" s="7" t="inlineStr">
+      <c r="O29" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P29" s="8" t="inlineStr">
         <is>
           <t>- Thời gian check - fix bugs:50h/tháng(từ 1.5 đến 2.5h/ngày)</t>
         </is>
       </c>
-      <c r="Q29" s="7" t="n"/>
-      <c r="R29" s="7" t="inlineStr">
+      <c r="Q29" s="8" t="n"/>
+      <c r="R29" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K30" s="8" t="n">
+      <c r="A30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K30" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L30" s="8" t="n">
+      <c r="L30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M30" s="8" t="n">
+      <c r="M30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="8" t="n">
+      <c r="N30" s="9" t="n">
         <v>675</v>
       </c>
-      <c r="O30" s="8" t="inlineStr"/>
-      <c r="P30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q30" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R30" s="7" t="n">
+      <c r="O30" s="9" t="inlineStr"/>
+      <c r="P30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R30" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="inlineStr">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành xây dựng CheckMK theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D31" s="7" t="inlineStr">
+      <c r="D31" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án CheckMK</t>
         </is>
       </c>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
-      <c r="G31" s="7" t="inlineStr">
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
+      <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H31" s="7" t="inlineStr">
+      <c r="H31" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I31" s="7" t="inlineStr">
+      <c r="I31" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J31" s="7" t="inlineStr">
+      <c r="J31" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K31" s="7" t="n">
+      <c r="K31" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L31" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M31" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N31" s="7" t="n">
+      <c r="L31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N31" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="O31" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P31" s="7" t="inlineStr">
+      <c r="O31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P31" s="8" t="inlineStr">
         <is>
           <t>- Code tính năng 4h/ngày * 23
 - Review + Update Code: 0.5h/ tuần (PoolIP)
@@ -2313,64 +2328,64 @@
 - Meeting retro, review, planning : 16h/tháng</t>
         </is>
       </c>
-      <c r="Q31" s="7" t="n"/>
-      <c r="R31" s="7" t="inlineStr">
+      <c r="Q31" s="8" t="n"/>
+      <c r="R31" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K32" s="8" t="n">
+      <c r="A32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K32" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L32" s="8" t="n">
+      <c r="L32" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M32" s="8" t="n">
+      <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N32" s="8" t="n">
+      <c r="N32" s="9" t="n">
         <v>675</v>
       </c>
-      <c r="O32" s="8" t="inlineStr"/>
-      <c r="P32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q32" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R32" s="7" t="n">
+      <c r="O32" s="9" t="inlineStr"/>
+      <c r="P32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R32" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -2438,42 +2453,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H35" s="4" t="inlineStr">
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I35" s="4" t="inlineStr">
+      <c r="I35" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -2483,17 +2498,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K35" s="5" t="inlineStr">
+      <c r="K35" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L35" s="5" t="inlineStr">
+      <c r="L35" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M35" s="5" t="inlineStr">
+      <c r="M35" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -2503,12 +2518,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O35" s="5" t="inlineStr">
+      <c r="O35" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P35" s="4" t="inlineStr">
+      <c r="P35" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -2518,77 +2533,77 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R35" s="4" t="inlineStr">
+      <c r="R35" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="inlineStr">
+      <c r="A36" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B36" s="7" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
+      <c r="C36" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Dialo</t>
         </is>
       </c>
-      <c r="D36" s="7" t="inlineStr">
+      <c r="D36" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="7" t="inlineStr">
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H36" s="7" t="inlineStr">
+      <c r="H36" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I36" s="7" t="inlineStr">
+      <c r="I36" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J36" s="7" t="inlineStr">
+      <c r="J36" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K36" s="7" t="n">
+      <c r="K36" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L36" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M36" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N36" s="7" t="n">
+      <c r="L36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N36" s="8" t="n">
         <v>57.5</v>
       </c>
-      <c r="O36" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P36" s="7" t="inlineStr">
+      <c r="O36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P36" s="8" t="inlineStr">
         <is>
           <t>57.5/tháng</t>
         </is>
       </c>
-      <c r="Q36" s="7" t="n"/>
-      <c r="R36" s="7" t="inlineStr">
+      <c r="Q36" s="8" t="n"/>
+      <c r="R36" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -2596,245 +2611,245 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n"/>
-      <c r="B37" s="7" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
-      <c r="D37" s="7" t="inlineStr">
+      <c r="D37" s="8" t="inlineStr">
         <is>
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="inlineStr">
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
+      <c r="G37" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H37" s="7" t="inlineStr">
+      <c r="H37" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I37" s="7" t="inlineStr">
+      <c r="I37" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J37" s="7" t="inlineStr">
+      <c r="J37" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K37" s="7" t="n">
+      <c r="K37" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L37" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M37" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N37" s="7" t="n">
+      <c r="L37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N37" s="8" t="n">
         <v>11.5</v>
       </c>
-      <c r="O37" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P37" s="7" t="inlineStr">
+      <c r="O37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P37" s="8" t="inlineStr">
         <is>
           <t>11.5/tháng</t>
         </is>
       </c>
-      <c r="Q37" s="7" t="n"/>
-      <c r="R37" s="7" t="inlineStr">
+      <c r="Q37" s="8" t="n"/>
+      <c r="R37" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K38" s="8" t="n">
+      <c r="A38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K38" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L38" s="8" t="n">
+      <c r="L38" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M38" s="8" t="n">
+      <c r="M38" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="8" t="n">
+      <c r="N38" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O38" s="8" t="inlineStr"/>
-      <c r="P38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q38" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R38" s="7" t="n">
+      <c r="O38" s="9" t="inlineStr"/>
+      <c r="P38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R38" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="inlineStr">
+      <c r="A39" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B39" s="7" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C39" s="7" t="inlineStr">
+      <c r="C39" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản web và apps theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D39" s="7" t="inlineStr">
+      <c r="D39" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án SOP</t>
         </is>
       </c>
-      <c r="E39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
-      <c r="G39" s="7" t="inlineStr">
+      <c r="E39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
+      <c r="G39" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H39" s="7" t="inlineStr">
+      <c r="H39" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I39" s="7" t="inlineStr">
+      <c r="I39" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J39" s="7" t="inlineStr">
+      <c r="J39" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K39" s="7" t="n">
+      <c r="K39" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L39" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M39" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N39" s="7" t="n">
+      <c r="L39" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M39" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N39" s="8" t="n">
         <v>115</v>
       </c>
-      <c r="O39" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P39" s="7" t="inlineStr">
+      <c r="O39" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P39" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">115/ tháng </t>
         </is>
       </c>
-      <c r="Q39" s="7" t="n"/>
-      <c r="R39" s="7" t="inlineStr">
+      <c r="Q39" s="8" t="n"/>
+      <c r="R39" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K40" s="8" t="n">
+      <c r="A40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K40" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L40" s="8" t="n">
+      <c r="L40" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M40" s="8" t="n">
+      <c r="M40" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N40" s="8" t="n">
+      <c r="N40" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O40" s="8" t="inlineStr"/>
-      <c r="P40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q40" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R40" s="7" t="n">
+      <c r="O40" s="9" t="inlineStr"/>
+      <c r="P40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R40" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -2902,42 +2917,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D43" s="4" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F43" s="4" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H43" s="4" t="inlineStr">
+      <c r="H43" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I43" s="4" t="inlineStr">
+      <c r="I43" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -2947,17 +2962,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K43" s="5" t="inlineStr">
+      <c r="K43" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L43" s="5" t="inlineStr">
+      <c r="L43" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M43" s="5" t="inlineStr">
+      <c r="M43" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -2967,12 +2982,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O43" s="5" t="inlineStr">
+      <c r="O43" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P43" s="4" t="inlineStr">
+      <c r="P43" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -2982,73 +2997,73 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R43" s="4" t="inlineStr">
+      <c r="R43" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="inlineStr">
+      <c r="A44" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B44" s="7" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
-      <c r="C44" s="7" t="inlineStr">
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo các công việc phát sinh hoàn thành đúng tiến độ và chất lượng</t>
         </is>
       </c>
-      <c r="D44" s="7" t="inlineStr">
+      <c r="D44" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành demo áp dụng tool Storybook và slide giới thiệu sản phẩm thi sáng tạo FTEL trước 23.8.2023</t>
         </is>
       </c>
-      <c r="E44" s="7" t="n"/>
-      <c r="F44" s="7" t="n"/>
-      <c r="G44" s="7" t="inlineStr">
+      <c r="E44" s="8" t="n"/>
+      <c r="F44" s="8" t="n"/>
+      <c r="G44" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H44" s="7" t="inlineStr">
+      <c r="H44" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I44" s="7" t="inlineStr">
+      <c r="I44" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J44" s="7" t="inlineStr">
+      <c r="J44" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K44" s="7" t="n">
+      <c r="K44" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L44" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M44" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N44" s="7" t="n">
+      <c r="L44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N44" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="O44" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P44" s="7" t="n"/>
-      <c r="Q44" s="7" t="n"/>
-      <c r="R44" s="7" t="inlineStr">
+      <c r="O44" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P44" s="8" t="n"/>
+      <c r="Q44" s="8" t="n"/>
+      <c r="R44" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3056,247 +3071,247 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n"/>
-      <c r="B45" s="7" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Dialo</t>
         </is>
       </c>
-      <c r="C45" s="7" t="inlineStr">
+      <c r="C45" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Happy Connect, Dialo</t>
         </is>
       </c>
-      <c r="D45" s="7" t="inlineStr">
+      <c r="D45" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường Prod critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E45" s="7" t="n"/>
-      <c r="F45" s="7" t="n"/>
-      <c r="G45" s="7" t="inlineStr">
+      <c r="E45" s="8" t="n"/>
+      <c r="F45" s="8" t="n"/>
+      <c r="G45" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H45" s="7" t="inlineStr">
+      <c r="H45" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I45" s="7" t="inlineStr">
+      <c r="I45" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J45" s="7" t="inlineStr">
+      <c r="J45" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K45" s="7" t="n">
+      <c r="K45" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N45" s="7" t="n">
+      <c r="L45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N45" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="O45" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P45" s="7" t="inlineStr">
+      <c r="O45" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P45" s="8" t="inlineStr">
         <is>
           <t>- Dialo: Fix bug 16h
 - Happy Connect: Fix bug 24h</t>
         </is>
       </c>
-      <c r="Q45" s="7" t="n"/>
-      <c r="R45" s="7" t="inlineStr">
+      <c r="Q45" s="8" t="n"/>
+      <c r="R45" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K46" s="8" t="n">
+      <c r="A46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K46" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L46" s="8" t="n">
+      <c r="L46" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M46" s="8" t="n">
+      <c r="M46" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="8" t="n">
+      <c r="N46" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O46" s="8" t="inlineStr"/>
-      <c r="P46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q46" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R46" s="7" t="n">
+      <c r="O46" s="9" t="inlineStr"/>
+      <c r="P46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q46" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R46" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="inlineStr">
+      <c r="A47" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B47" s="7" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C47" s="7" t="inlineStr">
+      <c r="C47" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành release các tính năng bản theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D47" s="7" t="inlineStr">
+      <c r="D47" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
         </is>
       </c>
-      <c r="E47" s="7" t="n"/>
-      <c r="F47" s="7" t="n"/>
-      <c r="G47" s="7" t="inlineStr">
+      <c r="E47" s="8" t="n"/>
+      <c r="F47" s="8" t="n"/>
+      <c r="G47" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H47" s="7" t="inlineStr">
+      <c r="H47" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I47" s="7" t="inlineStr">
+      <c r="I47" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J47" s="7" t="inlineStr">
+      <c r="J47" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K47" s="7" t="n">
+      <c r="K47" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L47" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M47" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N47" s="7" t="n">
+      <c r="L47" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M47" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N47" s="8" t="n">
         <v>128</v>
       </c>
-      <c r="O47" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P47" s="7" t="inlineStr">
+      <c r="O47" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P47" s="8" t="inlineStr">
         <is>
           <t>- Dialo: làm tính năng + họp daily 24h
 - Happy Connect: làm tính năng + họp daily 72h</t>
         </is>
       </c>
-      <c r="Q47" s="7" t="n"/>
-      <c r="R47" s="7" t="inlineStr">
+      <c r="Q47" s="8" t="n"/>
+      <c r="R47" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K48" s="8" t="n">
+      <c r="A48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K48" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L48" s="8" t="n">
+      <c r="L48" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M48" s="8" t="n">
+      <c r="M48" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N48" s="8" t="n">
+      <c r="N48" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O48" s="8" t="inlineStr"/>
-      <c r="P48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q48" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R48" s="7" t="n">
+      <c r="O48" s="9" t="inlineStr"/>
+      <c r="P48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q48" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R48" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -3364,42 +3379,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D51" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
+      <c r="E51" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F51" s="4" t="inlineStr">
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H51" s="4" t="inlineStr">
+      <c r="H51" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I51" s="4" t="inlineStr">
+      <c r="I51" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -3409,17 +3424,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K51" s="5" t="inlineStr">
+      <c r="K51" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L51" s="5" t="inlineStr">
+      <c r="L51" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M51" s="5" t="inlineStr">
+      <c r="M51" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -3429,12 +3444,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O51" s="5" t="inlineStr">
+      <c r="O51" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P51" s="4" t="inlineStr">
+      <c r="P51" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -3444,65 +3459,65 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R51" s="4" t="inlineStr">
+      <c r="R51" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="inlineStr">
+      <c r="A52" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B52" s="7" t="n"/>
-      <c r="C52" s="7" t="inlineStr">
-        <is>
-          <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
-        </is>
-      </c>
-      <c r="D52" s="7" t="n"/>
-      <c r="E52" s="7" t="n"/>
-      <c r="F52" s="7" t="n"/>
-      <c r="G52" s="7" t="inlineStr">
+      <c r="B52" s="8" t="n"/>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="D52" s="8" t="n"/>
+      <c r="E52" s="8" t="n"/>
+      <c r="F52" s="8" t="n"/>
+      <c r="G52" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H52" s="7" t="inlineStr">
+      <c r="H52" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I52" s="7" t="inlineStr">
+      <c r="I52" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J52" s="7" t="inlineStr">
+      <c r="J52" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K52" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="L52" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M52" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N52" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="O52" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P52" s="7" t="n"/>
-      <c r="Q52" s="7" t="n"/>
-      <c r="R52" s="7" t="inlineStr">
+      <c r="K52" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="L52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N52" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="O52" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P52" s="8" t="n"/>
+      <c r="Q52" s="8" t="n"/>
+      <c r="R52" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3510,233 +3525,233 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n"/>
-      <c r="B53" s="7" t="n"/>
-      <c r="C53" s="7" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="D53" s="7" t="n"/>
-      <c r="E53" s="7" t="n"/>
-      <c r="F53" s="7" t="n"/>
-      <c r="G53" s="7" t="inlineStr">
+      <c r="B53" s="8" t="n"/>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>Ứng dụng gRPC vào tối ưu &gt;= 1 module trong dự án Dialo được CBQL/PM/SA confirm trước 23.08.2023</t>
+        </is>
+      </c>
+      <c r="D53" s="8" t="n"/>
+      <c r="E53" s="8" t="n"/>
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H53" s="7" t="inlineStr">
+      <c r="H53" s="8" t="inlineStr">
         <is>
           <t>Đạt/Không đạt</t>
         </is>
       </c>
-      <c r="I53" s="7" t="inlineStr">
+      <c r="I53" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J53" s="7" t="inlineStr">
+      <c r="J53" s="8" t="inlineStr">
         <is>
           <t>Đạt</t>
         </is>
       </c>
-      <c r="K53" s="7" t="n">
-        <v>80</v>
-      </c>
-      <c r="L53" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M53" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N53" s="7" t="n">
-        <v>46</v>
-      </c>
-      <c r="O53" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P53" s="7" t="n"/>
-      <c r="Q53" s="7" t="n"/>
-      <c r="R53" s="7" t="inlineStr">
+      <c r="K53" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N53" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="O53" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P53" s="8" t="n"/>
+      <c r="Q53" s="8" t="n"/>
+      <c r="R53" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K54" s="8" t="n">
+      <c r="A54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K54" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L54" s="8" t="n">
+      <c r="L54" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M54" s="8" t="n">
+      <c r="M54" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N54" s="8" t="n">
+      <c r="N54" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O54" s="8" t="inlineStr"/>
-      <c r="P54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q54" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R54" s="7" t="n">
+      <c r="O54" s="9" t="inlineStr"/>
+      <c r="P54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q54" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R54" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="inlineStr">
+      <c r="A55" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B55" s="7" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C55" s="7" t="inlineStr">
+      <c r="C55" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo đáp ứng 100% nhu cầu chạy chiến dịch và số lượng Agents của TLS và hoàn thành tính năng giám sát agent (nghe lén)</t>
         </is>
       </c>
-      <c r="D55" s="7" t="inlineStr">
+      <c r="D55" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án Dialo</t>
         </is>
       </c>
-      <c r="E55" s="7" t="n"/>
-      <c r="F55" s="7" t="n"/>
-      <c r="G55" s="7" t="inlineStr">
+      <c r="E55" s="8" t="n"/>
+      <c r="F55" s="8" t="n"/>
+      <c r="G55" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H55" s="7" t="inlineStr">
+      <c r="H55" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I55" s="7" t="inlineStr">
+      <c r="I55" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J55" s="7" t="inlineStr">
+      <c r="J55" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K55" s="7" t="n">
+      <c r="K55" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L55" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M55" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N55" s="7" t="n">
+      <c r="L55" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M55" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N55" s="8" t="n">
         <v>115</v>
       </c>
-      <c r="O55" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P55" s="7" t="inlineStr">
+      <c r="O55" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P55" s="8" t="inlineStr">
         <is>
           <t>23 * 5 ( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting test / retro / planning)</t>
         </is>
       </c>
-      <c r="Q55" s="7" t="n"/>
-      <c r="R55" s="7" t="inlineStr">
+      <c r="Q55" s="8" t="n"/>
+      <c r="R55" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K56" s="8" t="n">
+      <c r="A56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K56" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L56" s="8" t="n">
+      <c r="L56" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M56" s="8" t="n">
+      <c r="M56" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N56" s="8" t="n">
+      <c r="N56" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O56" s="8" t="inlineStr"/>
-      <c r="P56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q56" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R56" s="7" t="n">
+      <c r="O56" s="9" t="inlineStr"/>
+      <c r="P56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q56" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R56" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -3804,42 +3819,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="B59" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D59" s="4" t="inlineStr">
+      <c r="D59" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
+      <c r="E59" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="F59" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G59" s="4" t="inlineStr">
+      <c r="G59" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H59" s="4" t="inlineStr">
+      <c r="H59" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I59" s="4" t="inlineStr">
+      <c r="I59" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -3849,17 +3864,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K59" s="5" t="inlineStr">
+      <c r="K59" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L59" s="5" t="inlineStr">
+      <c r="L59" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M59" s="5" t="inlineStr">
+      <c r="M59" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -3869,12 +3884,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O59" s="5" t="inlineStr">
+      <c r="O59" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P59" s="4" t="inlineStr">
+      <c r="P59" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -3884,71 +3899,71 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R59" s="4" t="inlineStr">
+      <c r="R59" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="inlineStr">
+      <c r="A60" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B60" s="7" t="n"/>
-      <c r="C60" s="7" t="inlineStr">
+      <c r="B60" s="8" t="n"/>
+      <c r="C60" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành triển khai tích hợp HVAC client vào source code dự án Happy Connect trong trước 23.08.2023</t>
         </is>
       </c>
-      <c r="D60" s="7" t="n"/>
-      <c r="E60" s="7" t="n"/>
-      <c r="F60" s="7" t="n"/>
-      <c r="G60" s="7" t="inlineStr">
+      <c r="D60" s="8" t="n"/>
+      <c r="E60" s="8" t="n"/>
+      <c r="F60" s="8" t="n"/>
+      <c r="G60" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H60" s="7" t="inlineStr">
+      <c r="H60" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I60" s="7" t="inlineStr">
+      <c r="I60" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J60" s="7" t="inlineStr">
+      <c r="J60" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K60" s="7" t="n">
+      <c r="K60" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="L60" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M60" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N60" s="7" t="n">
+      <c r="L60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N60" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="O60" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P60" s="7" t="inlineStr">
+      <c r="O60" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P60" s="8" t="inlineStr">
         <is>
           <t>"- Nghiên cứu HVAC: 8h 
 - Tích hợp thư viện vào source code và triển khai dev: 6h
 - Kiểm tra, điều chỉnh cấu hình cho các service: 2h"</t>
         </is>
       </c>
-      <c r="Q60" s="7" t="n"/>
-      <c r="R60" s="7" t="inlineStr">
+      <c r="Q60" s="8" t="n"/>
+      <c r="R60" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -3956,175 +3971,175 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n"/>
-      <c r="B61" s="7" t="n"/>
-      <c r="C61" s="7" t="inlineStr">
+      <c r="B61" s="8" t="n"/>
+      <c r="C61" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="D61" s="7" t="n"/>
-      <c r="E61" s="7" t="n"/>
-      <c r="F61" s="7" t="n"/>
-      <c r="G61" s="7" t="inlineStr">
+      <c r="D61" s="8" t="n"/>
+      <c r="E61" s="8" t="n"/>
+      <c r="F61" s="8" t="n"/>
+      <c r="G61" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H61" s="7" t="inlineStr">
+      <c r="H61" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I61" s="7" t="inlineStr">
+      <c r="I61" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J61" s="7" t="inlineStr">
+      <c r="J61" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K61" s="7" t="n">
+      <c r="K61" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L61" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M61" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N61" s="7" t="n">
+      <c r="L61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N61" s="8" t="n">
         <v>46</v>
       </c>
-      <c r="O61" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P61" s="7" t="inlineStr">
+      <c r="O61" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P61" s="8" t="inlineStr">
         <is>
           <t>- Fix bug: 2h/ngày*23 (Meeting trao đổi và xử lý Bug)</t>
         </is>
       </c>
-      <c r="Q61" s="7" t="n"/>
-      <c r="R61" s="7" t="inlineStr">
+      <c r="Q61" s="8" t="n"/>
+      <c r="R61" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K62" s="8" t="n">
+      <c r="A62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K62" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L62" s="8" t="n">
+      <c r="L62" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M62" s="8" t="n">
+      <c r="M62" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N62" s="8" t="n">
+      <c r="N62" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O62" s="8" t="inlineStr"/>
-      <c r="P62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q62" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R62" s="7" t="n">
+      <c r="O62" s="9" t="inlineStr"/>
+      <c r="P62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q62" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R62" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="inlineStr">
+      <c r="A63" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B63" s="7" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
         <is>
           <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
         </is>
       </c>
-      <c r="C63" s="7" t="inlineStr">
+      <c r="C63" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
         </is>
       </c>
-      <c r="D63" s="7" t="inlineStr">
+      <c r="D63" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
         </is>
       </c>
-      <c r="E63" s="7" t="n"/>
-      <c r="F63" s="7" t="n"/>
-      <c r="G63" s="7" t="inlineStr">
+      <c r="E63" s="8" t="n"/>
+      <c r="F63" s="8" t="n"/>
+      <c r="G63" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H63" s="7" t="inlineStr">
+      <c r="H63" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I63" s="7" t="inlineStr">
+      <c r="I63" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J63" s="7" t="inlineStr">
+      <c r="J63" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K63" s="7" t="n">
+      <c r="K63" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L63" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M63" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N63" s="7" t="n">
+      <c r="L63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N63" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="O63" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P63" s="7" t="inlineStr">
+      <c r="O63" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P63" s="8" t="inlineStr">
         <is>
           <t>"- Tổng = 80,5 + 8 + 11.5 + 8 + 3
 - 4*23 =  80.5(Code tính năng 4h/ngày)
@@ -4134,64 +4149,64 @@
 "</t>
         </is>
       </c>
-      <c r="Q63" s="7" t="n"/>
-      <c r="R63" s="7" t="inlineStr">
+      <c r="Q63" s="8" t="n"/>
+      <c r="R63" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K64" s="8" t="n">
+      <c r="A64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K64" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="L64" s="8" t="n">
+      <c r="L64" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M64" s="8" t="n">
+      <c r="M64" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="8" t="n">
+      <c r="N64" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O64" s="8" t="inlineStr"/>
-      <c r="P64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q64" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R64" s="7" t="n">
+      <c r="O64" s="9" t="inlineStr"/>
+      <c r="P64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q64" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R64" s="8" t="n">
         <v/>
       </c>
     </row>
@@ -4259,42 +4274,42 @@
           <t>Loại</t>
         </is>
       </c>
-      <c r="B67" s="4" t="inlineStr">
+      <c r="B67" s="5" t="inlineStr">
         <is>
           <t>KR phòng</t>
         </is>
       </c>
-      <c r="C67" s="4" t="inlineStr">
+      <c r="C67" s="5" t="inlineStr">
         <is>
           <t>KR team</t>
         </is>
       </c>
-      <c r="D67" s="4" t="inlineStr">
+      <c r="D67" s="5" t="inlineStr">
         <is>
           <t>KR cá nhân</t>
         </is>
       </c>
-      <c r="E67" s="4" t="inlineStr">
+      <c r="E67" s="5" t="inlineStr">
         <is>
           <t>Công thức tính</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
+      <c r="F67" s="5" t="inlineStr">
         <is>
           <t>Nguồn dữ liệu</t>
         </is>
       </c>
-      <c r="G67" s="4" t="inlineStr">
+      <c r="G67" s="5" t="inlineStr">
         <is>
           <t>Định kỳ tính</t>
         </is>
       </c>
-      <c r="H67" s="4" t="inlineStr">
+      <c r="H67" s="5" t="inlineStr">
         <is>
           <t>Đơn vị tính</t>
         </is>
       </c>
-      <c r="I67" s="4" t="inlineStr">
+      <c r="I67" s="5" t="inlineStr">
         <is>
           <t>Điều kiện</t>
         </is>
@@ -4304,17 +4319,17 @@
           <t>Norm</t>
         </is>
       </c>
-      <c r="K67" s="5" t="inlineStr">
+      <c r="K67" s="6" t="inlineStr">
         <is>
           <t>% Trọng số chỉ tiêu</t>
         </is>
       </c>
-      <c r="L67" s="5" t="inlineStr">
+      <c r="L67" s="6" t="inlineStr">
         <is>
           <t>Kết quả</t>
         </is>
       </c>
-      <c r="M67" s="5" t="inlineStr">
+      <c r="M67" s="6" t="inlineStr">
         <is>
           <t>Tỷ lệ</t>
         </is>
@@ -4324,12 +4339,12 @@
           <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
         </is>
       </c>
-      <c r="O67" s="5" t="inlineStr">
+      <c r="O67" s="4" t="inlineStr">
         <is>
           <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
         </is>
       </c>
-      <c r="P67" s="4" t="inlineStr">
+      <c r="P67" s="6" t="inlineStr">
         <is>
           <t>Note dự kiến</t>
         </is>
@@ -4339,77 +4354,78 @@
           <t>Note bằng chứng thực tế</t>
         </is>
       </c>
-      <c r="R67" s="4" t="inlineStr">
+      <c r="R67" s="7" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="inlineStr">
+      <c r="A68" s="8" t="inlineStr">
         <is>
           <t>kpi</t>
         </is>
       </c>
-      <c r="B68" s="7" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
-        </is>
-      </c>
-      <c r="C68" s="7" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
-        </is>
-      </c>
-      <c r="D68" s="7" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E68" s="7" t="n"/>
-      <c r="F68" s="7" t="n"/>
-      <c r="G68" s="7" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C68" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D68" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
+        </is>
+      </c>
+      <c r="E68" s="8" t="n"/>
+      <c r="F68" s="8" t="n"/>
+      <c r="G68" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H68" s="7" t="inlineStr">
+      <c r="H68" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I68" s="7" t="inlineStr">
+      <c r="I68" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J68" s="7" t="inlineStr">
+      <c r="J68" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K68" s="7" t="n">
+      <c r="K68" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L68" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M68" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N68" s="7" t="n">
-        <v>46</v>
-      </c>
-      <c r="O68" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P68" s="7" t="inlineStr">
-        <is>
-          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
-        </is>
-      </c>
-      <c r="Q68" s="7" t="n"/>
-      <c r="R68" s="7" t="inlineStr">
+      <c r="L68" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M68" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N68" s="8" t="n">
+        <v>123</v>
+      </c>
+      <c r="O68" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P68" s="8" t="inlineStr">
+        <is>
+          <t>"23 * 5( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting)
+4h review, retro, planing 1 sprint"</t>
+        </is>
+      </c>
+      <c r="Q68" s="8" t="n"/>
+      <c r="R68" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4417,65 +4433,65 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n"/>
-      <c r="B69" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C69" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D69" s="7" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E69" s="7" t="n"/>
-      <c r="F69" s="7" t="n"/>
-      <c r="G69" s="7" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX, SOP, HappyConnect, Dialo, CheckMK</t>
+        </is>
+      </c>
+      <c r="C69" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
+        </is>
+      </c>
+      <c r="D69" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E69" s="8" t="n"/>
+      <c r="F69" s="8" t="n"/>
+      <c r="G69" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H69" s="7" t="inlineStr">
+      <c r="H69" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I69" s="7" t="inlineStr">
+      <c r="I69" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J69" s="7" t="inlineStr">
+      <c r="J69" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K69" s="7" t="n">
+      <c r="K69" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L69" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M69" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N69" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O69" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P69" s="7" t="inlineStr">
-        <is>
-          <t>3-4h * 4 (khoảng 3-4h mỗi tuần nghiên cứu dự án những phần nên tối ưu)</t>
-        </is>
-      </c>
-      <c r="Q69" s="7" t="n"/>
-      <c r="R69" s="7" t="inlineStr">
+      <c r="L69" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M69" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N69" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="O69" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P69" s="8" t="inlineStr">
+        <is>
+          <t>23 * 2 ( 2h fix bug / meeting clear bug)</t>
+        </is>
+      </c>
+      <c r="Q69" s="8" t="n"/>
+      <c r="R69" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4483,188 +4499,187 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n"/>
-      <c r="B70" s="7" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm OnCX, SOP, HappyConnect, Dialo, CheckMK đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C70" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D70" s="7" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
-        </is>
-      </c>
-      <c r="E70" s="7" t="n"/>
-      <c r="F70" s="7" t="n"/>
-      <c r="G70" s="7" t="inlineStr">
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C70" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D70" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E70" s="8" t="n"/>
+      <c r="F70" s="8" t="n"/>
+      <c r="G70" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H70" s="7" t="inlineStr">
+      <c r="H70" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I70" s="7" t="inlineStr">
+      <c r="I70" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J70" s="7" t="inlineStr">
+      <c r="J70" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K70" s="7" t="n">
+      <c r="K70" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L70" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M70" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N70" s="7" t="n">
-        <v>123</v>
-      </c>
-      <c r="O70" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P70" s="7" t="inlineStr">
-        <is>
-          <t>"23 * 5( 4h mỗi ngày làm task , khoảng 30 phút - 1 tiếng daily/ meeting)
-4h review, retro, planing 1 sprint"</t>
-        </is>
-      </c>
-      <c r="Q70" s="7" t="n"/>
-      <c r="R70" s="7" t="inlineStr">
+      <c r="L70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N70" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O70" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P70" s="8" t="inlineStr">
+        <is>
+          <t>3-4h * 4 (khoảng 3-4h mỗi tuần nghiên cứu dự án những phần nên tối ưu)</t>
+        </is>
+      </c>
+      <c r="Q70" s="8" t="n"/>
+      <c r="R70" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K71" s="8" t="n">
+      <c r="A71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K71" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="L71" s="8" t="n">
+      <c r="L71" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M71" s="8" t="n">
+      <c r="M71" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="8" t="n">
+      <c r="N71" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O71" s="8" t="inlineStr"/>
-      <c r="P71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q71" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R71" s="7" t="n">
+      <c r="O71" s="9" t="inlineStr"/>
+      <c r="P71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q71" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R71" s="8" t="n">
         <v/>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="inlineStr">
+      <c r="A72" s="8" t="inlineStr">
         <is>
           <t>okr</t>
         </is>
       </c>
-      <c r="B72" s="7" t="inlineStr">
+      <c r="B72" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
 </t>
         </is>
       </c>
-      <c r="C72" s="7" t="inlineStr">
+      <c r="C72" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
 </t>
         </is>
       </c>
-      <c r="D72" s="7" t="inlineStr">
+      <c r="D72" s="8" t="inlineStr">
         <is>
           <t>Thi đạt chứng chỉ PCAP trong tháng 9.2023</t>
         </is>
       </c>
-      <c r="E72" s="7" t="n"/>
-      <c r="F72" s="7" t="n"/>
-      <c r="G72" s="7" t="inlineStr">
+      <c r="E72" s="8" t="n"/>
+      <c r="F72" s="8" t="n"/>
+      <c r="G72" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H72" s="7" t="inlineStr">
+      <c r="H72" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I72" s="7" t="inlineStr">
+      <c r="I72" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J72" s="7" t="inlineStr">
+      <c r="J72" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K72" s="7" t="n">
+      <c r="K72" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L72" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M72" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N72" s="7" t="n">
+      <c r="L72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N72" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="O72" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P72" s="7" t="n"/>
-      <c r="Q72" s="7" t="n"/>
-      <c r="R72" s="7" t="inlineStr">
+      <c r="O72" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P72" s="8" t="n"/>
+      <c r="Q72" s="8" t="n"/>
+      <c r="R72" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4672,61 +4687,61 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n"/>
-      <c r="B73" s="7" t="inlineStr">
+      <c r="B73" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
         </is>
       </c>
-      <c r="C73" s="7" t="inlineStr">
+      <c r="C73" s="8" t="inlineStr">
         <is>
           <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
         </is>
       </c>
-      <c r="D73" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng theo kế hoạch dự án HappyConnect trong quý 3</t>
-        </is>
-      </c>
-      <c r="E73" s="7" t="n"/>
-      <c r="F73" s="7" t="n"/>
-      <c r="G73" s="7" t="inlineStr">
+      <c r="D73" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool</t>
+        </is>
+      </c>
+      <c r="E73" s="8" t="n"/>
+      <c r="F73" s="8" t="n"/>
+      <c r="G73" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H73" s="7" t="inlineStr">
+      <c r="H73" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I73" s="7" t="inlineStr">
+      <c r="I73" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J73" s="7" t="inlineStr">
+      <c r="J73" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K73" s="7" t="n">
+      <c r="K73" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L73" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M73" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N73" s="7" t="n">
+      <c r="L73" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M73" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N73" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="O73" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P73" s="7" t="n"/>
-      <c r="Q73" s="7" t="n"/>
-      <c r="R73" s="7" t="inlineStr">
+      <c r="O73" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P73" s="8" t="n"/>
+      <c r="Q73" s="8" t="n"/>
+      <c r="R73" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4734,61 +4749,63 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n"/>
-      <c r="B74" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
-        </is>
-      </c>
-      <c r="C74" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
-        </is>
-      </c>
-      <c r="D74" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành xây dựng dashboard đầu tư và đánh giá hạ tầng, IP Pool</t>
-        </is>
-      </c>
-      <c r="E74" s="7" t="n"/>
-      <c r="F74" s="7" t="n"/>
-      <c r="G74" s="7" t="inlineStr">
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
+</t>
+        </is>
+      </c>
+      <c r="C74" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
+</t>
+        </is>
+      </c>
+      <c r="D74" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành nghiên cứu, xây dựng kế hoạch và triển khai một công nghệ mới trong dự án Happy Connect trong tháng 08.2023</t>
+        </is>
+      </c>
+      <c r="E74" s="8" t="n"/>
+      <c r="F74" s="8" t="n"/>
+      <c r="G74" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H74" s="7" t="inlineStr">
+      <c r="H74" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I74" s="7" t="inlineStr">
+      <c r="I74" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J74" s="7" t="inlineStr">
+      <c r="J74" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K74" s="7" t="n">
+      <c r="K74" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L74" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M74" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N74" s="7" t="n">
+      <c r="L74" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M74" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N74" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="O74" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P74" s="7" t="n"/>
-      <c r="Q74" s="7" t="n"/>
-      <c r="R74" s="7" t="inlineStr">
+      <c r="O74" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P74" s="8" t="n"/>
+      <c r="Q74" s="8" t="n"/>
+      <c r="R74" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
@@ -4796,119 +4813,117 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n"/>
-      <c r="B75" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
-</t>
-        </is>
-      </c>
-      <c r="C75" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phát triển chất lượng nguồn lực cho team và nâng cao năng lực cá nhân trong Q3.2023
-</t>
-        </is>
-      </c>
-      <c r="D75" s="7" t="inlineStr">
-        <is>
-          <t>Hoàn thành nghiên cứu, xây dựng kế hoạch và triển khai một công nghệ mới trong dự án Happy Connect trong tháng 08.2023</t>
-        </is>
-      </c>
-      <c r="E75" s="7" t="n"/>
-      <c r="F75" s="7" t="n"/>
-      <c r="G75" s="7" t="inlineStr">
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
+        </is>
+      </c>
+      <c r="C75" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành phát triển các tính năng cho dự án Happy connect  trong Q3.2023</t>
+        </is>
+      </c>
+      <c r="D75" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng theo kế hoạch dự án HappyConnect trong quý 3</t>
+        </is>
+      </c>
+      <c r="E75" s="8" t="n"/>
+      <c r="F75" s="8" t="n"/>
+      <c r="G75" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H75" s="7" t="inlineStr">
+      <c r="H75" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I75" s="7" t="inlineStr">
+      <c r="I75" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J75" s="7" t="inlineStr">
+      <c r="J75" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K75" s="7" t="n">
+      <c r="K75" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="L75" s="7" t="n">
-        <v/>
-      </c>
-      <c r="M75" s="7" t="n">
-        <v/>
-      </c>
-      <c r="N75" s="7" t="n">
+      <c r="L75" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M75" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N75" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="O75" s="7" t="n">
-        <v/>
-      </c>
-      <c r="P75" s="7" t="n"/>
-      <c r="Q75" s="7" t="n"/>
-      <c r="R75" s="7" t="inlineStr">
+      <c r="O75" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P75" s="8" t="n"/>
+      <c r="Q75" s="8" t="n"/>
+      <c r="R75" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="B76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="C76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="D76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="E76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="F76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="G76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="H76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="I76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="J76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="K76" s="8" t="n">
+      <c r="A76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K76" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="L76" s="8" t="n">
+      <c r="L76" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="M76" s="8" t="n">
+      <c r="M76" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="8" t="n">
+      <c r="N76" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O76" s="8" t="inlineStr"/>
-      <c r="P76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="Q76" s="7" t="n">
-        <v/>
-      </c>
-      <c r="R76" s="7" t="n">
+      <c r="O76" s="9" t="inlineStr"/>
+      <c r="P76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q76" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R76" s="8" t="n">
         <v/>
       </c>
     </row>
